--- a/Results_3L.xlsx
+++ b/Results_3L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\AAAI 21\AAAI-21-Student-Abstract\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08D2B627-DBBB-4032-9F07-437C873CAB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8717087-A281-4F63-B9C9-D53D63C332A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{23239864-EA8B-44F5-A6AF-31B8869FFC1B}"/>
+    <workbookView xWindow="7305" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{23239864-EA8B-44F5-A6AF-31B8869FFC1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:AP16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,13 +790,13 @@
         <v>498</v>
       </c>
       <c r="I5">
-        <v>0.9647</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="J5">
         <v>347</v>
       </c>
       <c r="K5">
-        <v>0.95620000000000005</v>
+        <v>0.95879999999999999</v>
       </c>
       <c r="L5">
         <v>188</v>
@@ -918,7 +918,7 @@
         <v>471</v>
       </c>
       <c r="I6">
-        <v>0.95950000000000002</v>
+        <v>0.95689999999999997</v>
       </c>
       <c r="J6">
         <v>487</v>
@@ -1180,7 +1180,7 @@
         <v>494</v>
       </c>
       <c r="K8">
-        <v>0.95689999999999997</v>
+        <v>0.95950000000000002</v>
       </c>
       <c r="L8">
         <v>376</v>
@@ -1430,13 +1430,13 @@
         <v>455</v>
       </c>
       <c r="I10">
-        <v>0.96409999999999996</v>
+        <v>0.95620000000000005</v>
       </c>
       <c r="J10">
         <v>347</v>
       </c>
       <c r="K10">
-        <v>0.9536</v>
+        <v>0.96079999999999999</v>
       </c>
       <c r="L10">
         <v>226</v>
@@ -1942,147 +1942,147 @@
         <v>399.5</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:AP15" si="0">AVERAGE(G4:G13)</f>
+        <f t="shared" ref="G15" si="0">AVERAGE(G4:G13)</f>
         <v>0.95130000000000003</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:AP15" si="1">MEDIAN(H4:H13)</f>
+        <f t="shared" ref="H15" si="1">MEDIAN(H4:H13)</f>
         <v>392.5</v>
       </c>
       <c r="I15">
-        <f t="shared" ref="I15:AP15" si="2">AVERAGE(I4:I13)</f>
-        <v>0.95791000000000026</v>
+        <f>AVERAGE(I4:I13)</f>
+        <v>0.95549000000000017</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:AP15" si="3">MEDIAN(J4:J13)</f>
+        <f t="shared" ref="J15" si="2">MEDIAN(J4:J13)</f>
         <v>341.5</v>
       </c>
       <c r="K15">
-        <f t="shared" ref="K15:AP15" si="4">AVERAGE(K4:K13)</f>
-        <v>0.95752000000000004</v>
+        <f t="shared" ref="K15" si="3">AVERAGE(K4:K13)</f>
+        <v>0.95876000000000006</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:AP15" si="5">MEDIAN(L4:L13)</f>
+        <f t="shared" ref="L15" si="4">MEDIAN(L4:L13)</f>
         <v>370</v>
       </c>
       <c r="M15">
-        <f t="shared" ref="M15:AP15" si="6">AVERAGE(M4:M13)</f>
+        <f t="shared" ref="M15" si="5">AVERAGE(M4:M13)</f>
         <v>0.61999999999999988</v>
       </c>
       <c r="N15">
-        <f t="shared" ref="N15:AP15" si="7">MEDIAN(N4:N13)</f>
+        <f t="shared" ref="N15" si="6">MEDIAN(N4:N13)</f>
         <v>11</v>
       </c>
       <c r="O15">
-        <f t="shared" ref="O15:AP15" si="8">AVERAGE(O4:O13)</f>
+        <f t="shared" ref="O15" si="7">AVERAGE(O4:O13)</f>
         <v>0.63339999999999996</v>
       </c>
       <c r="P15">
-        <f t="shared" ref="P15:AP15" si="9">MEDIAN(P4:P13)</f>
+        <f t="shared" ref="P15" si="8">MEDIAN(P4:P13)</f>
         <v>9.5</v>
       </c>
       <c r="Q15">
-        <f t="shared" ref="Q15:AP15" si="10">AVERAGE(Q4:Q13)</f>
+        <f t="shared" ref="Q15" si="9">AVERAGE(Q4:Q13)</f>
         <v>0.66780000000000017</v>
       </c>
       <c r="R15">
-        <f t="shared" ref="R15:AP15" si="11">MEDIAN(R4:R13)</f>
+        <f t="shared" ref="R15" si="10">MEDIAN(R4:R13)</f>
         <v>7</v>
       </c>
       <c r="S15">
-        <f t="shared" ref="S15:AP15" si="12">AVERAGE(S4:S13)</f>
+        <f t="shared" ref="S15" si="11">AVERAGE(S4:S13)</f>
         <v>0.92735000000000001</v>
       </c>
       <c r="T15">
-        <f t="shared" ref="T15:AP15" si="13">MEDIAN(T4:T13)</f>
+        <f t="shared" ref="T15" si="12">MEDIAN(T4:T13)</f>
         <v>53.5</v>
       </c>
       <c r="U15">
-        <f t="shared" ref="U15:AP15" si="14">AVERAGE(U4:U13)</f>
+        <f t="shared" ref="U15" si="13">AVERAGE(U4:U13)</f>
         <v>0.93615000000000015</v>
       </c>
       <c r="V15">
-        <f t="shared" ref="V15:AP15" si="15">MEDIAN(V4:V13)</f>
+        <f t="shared" ref="V15" si="14">MEDIAN(V4:V13)</f>
         <v>50.5</v>
       </c>
       <c r="W15">
-        <f t="shared" ref="W15:AP15" si="16">AVERAGE(W4:W13)</f>
+        <f t="shared" ref="W15" si="15">AVERAGE(W4:W13)</f>
         <v>0.93641999999999981</v>
       </c>
       <c r="X15">
-        <f t="shared" ref="X15:AP15" si="17">MEDIAN(X4:X13)</f>
+        <f t="shared" ref="X15" si="16">MEDIAN(X4:X13)</f>
         <v>42</v>
       </c>
       <c r="Y15">
-        <f t="shared" ref="Y15:AP15" si="18">AVERAGE(Y4:Y13)</f>
+        <f t="shared" ref="Y15" si="17">AVERAGE(Y4:Y13)</f>
         <v>0.63497000000000003</v>
       </c>
       <c r="Z15">
-        <f t="shared" ref="Z15:AP15" si="19">MEDIAN(Z4:Z13)</f>
+        <f t="shared" ref="Z15" si="18">MEDIAN(Z4:Z13)</f>
         <v>46.5</v>
       </c>
       <c r="AA15">
-        <f t="shared" ref="AA15:AP15" si="20">AVERAGE(AA4:AA13)</f>
+        <f t="shared" ref="AA15" si="19">AVERAGE(AA4:AA13)</f>
         <v>0.64979000000000009</v>
       </c>
       <c r="AB15">
-        <f t="shared" ref="AB15:AP15" si="21">MEDIAN(AB4:AB13)</f>
+        <f t="shared" ref="AB15" si="20">MEDIAN(AB4:AB13)</f>
         <v>43</v>
       </c>
       <c r="AC15">
-        <f t="shared" ref="AC15:AP15" si="22">AVERAGE(AC4:AC13)</f>
+        <f t="shared" ref="AC15" si="21">AVERAGE(AC4:AC13)</f>
         <v>0.79169999999999985</v>
       </c>
       <c r="AD15">
-        <f t="shared" ref="AD15:AP15" si="23">MEDIAN(AD4:AD13)</f>
+        <f t="shared" ref="AD15" si="22">MEDIAN(AD4:AD13)</f>
         <v>10</v>
       </c>
       <c r="AE15">
-        <f t="shared" ref="AE15:AP15" si="24">AVERAGE(AE4:AE13)</f>
+        <f t="shared" ref="AE15" si="23">AVERAGE(AE4:AE13)</f>
         <v>0.77040000000000008</v>
       </c>
       <c r="AF15">
-        <f t="shared" ref="AF15:AP15" si="25">MEDIAN(AF4:AF13)</f>
+        <f t="shared" ref="AF15" si="24">MEDIAN(AF4:AF13)</f>
         <v>15</v>
       </c>
       <c r="AG15">
-        <f t="shared" ref="AG15:AP15" si="26">AVERAGE(AG4:AG13)</f>
+        <f t="shared" ref="AG15" si="25">AVERAGE(AG4:AG13)</f>
         <v>0.79149999999999998</v>
       </c>
       <c r="AH15">
-        <f t="shared" ref="AH15:AP15" si="27">MEDIAN(AH4:AH13)</f>
+        <f t="shared" ref="AH15" si="26">MEDIAN(AH4:AH13)</f>
         <v>15</v>
       </c>
       <c r="AI15">
-        <f t="shared" ref="AI15:AP15" si="28">AVERAGE(AI4:AI13)</f>
+        <f t="shared" ref="AI15" si="27">AVERAGE(AI4:AI13)</f>
         <v>0.80159999999999987</v>
       </c>
       <c r="AJ15">
-        <f t="shared" ref="AJ15:AP15" si="29">MEDIAN(AJ4:AJ13)</f>
+        <f t="shared" ref="AJ15" si="28">MEDIAN(AJ4:AJ13)</f>
         <v>12.5</v>
       </c>
       <c r="AK15">
-        <f t="shared" ref="AK15:AP15" si="30">AVERAGE(AK4:AK13)</f>
+        <f t="shared" ref="AK15" si="29">AVERAGE(AK4:AK13)</f>
         <v>0.94281000000000026</v>
       </c>
       <c r="AL15">
-        <f t="shared" ref="AL15:AP15" si="31">MEDIAN(AL4:AL13)</f>
+        <f t="shared" ref="AL15" si="30">MEDIAN(AL4:AL13)</f>
         <v>97</v>
       </c>
       <c r="AM15">
-        <f t="shared" ref="AM15:AP15" si="32">AVERAGE(AM4:AM13)</f>
+        <f t="shared" ref="AM15" si="31">AVERAGE(AM4:AM13)</f>
         <v>0.94674999999999998</v>
       </c>
       <c r="AN15">
-        <f t="shared" ref="AN15:AP15" si="33">MEDIAN(AN4:AN13)</f>
+        <f t="shared" ref="AN15" si="32">MEDIAN(AN4:AN13)</f>
         <v>95</v>
       </c>
       <c r="AO15">
-        <f t="shared" ref="AO15:AP15" si="34">AVERAGE(AO4:AO13)</f>
+        <f t="shared" ref="AO15" si="33">AVERAGE(AO4:AO13)</f>
         <v>0.94764999999999999</v>
       </c>
       <c r="AP15">
-        <f t="shared" ref="AP15" si="35">MEDIAN(AP4:AP13)</f>
+        <f t="shared" ref="AP15" si="34">MEDIAN(AP4:AP13)</f>
         <v>98</v>
       </c>
     </row>
@@ -2092,167 +2092,167 @@
         <v>7.1656665968894678E-3</v>
       </c>
       <c r="B16">
-        <f t="shared" ref="B16:AP16" si="36">STDEV(B4:B13)</f>
+        <f t="shared" ref="B16:AP16" si="35">STDEV(B4:B13)</f>
         <v>57.596682003200215</v>
       </c>
       <c r="C16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1.575973773047426E-2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>92.341395556561324</v>
       </c>
       <c r="E16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>5.7570150444672414E-3</v>
       </c>
       <c r="F16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>86.223482235925019</v>
       </c>
       <c r="G16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1.4764823060233645E-3</v>
       </c>
       <c r="H16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>95.915703731048197</v>
       </c>
       <c r="I16">
-        <f t="shared" si="36"/>
-        <v>4.0297366883926362E-3</v>
+        <f t="shared" si="35"/>
+        <v>2.411292875893208E-3</v>
       </c>
       <c r="J16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>109.92426685879899</v>
       </c>
       <c r="K16">
-        <f t="shared" si="36"/>
-        <v>2.2582195543293742E-3</v>
+        <f t="shared" si="35"/>
+        <v>1.8056700818378814E-3</v>
       </c>
       <c r="L16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>105.00074073812787</v>
       </c>
       <c r="M16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2.3156472577277896E-2</v>
       </c>
       <c r="N16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>7.1717036562683862</v>
       </c>
       <c r="O16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2.3523983033869472E-2</v>
       </c>
       <c r="P16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>20.330874168231045</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>9.9532239333126049E-3</v>
       </c>
       <c r="R16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0.4216370213557839</v>
       </c>
       <c r="S16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1.2276897907135293E-3</v>
       </c>
       <c r="T16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>11.700427342622996</v>
       </c>
       <c r="U16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1.1578236288639025E-3</v>
       </c>
       <c r="V16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>8.8568868370576155</v>
       </c>
       <c r="W16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1.5504837954651426E-3</v>
       </c>
       <c r="X16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>9.5242380855956803</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>4.4181569812661702E-3</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>5.5065617423418018</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1.6134504089751907E-3</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>5.5936471902407936</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1.1832629087025055E-2</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>4.4969125210773466</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1.4508235209317818E-2</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>7.0875477658590293</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1.6413070672146896E-2</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3.1622776601683795</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1.389004439637731E-2</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2.3664319132398486</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1.0038260141412446E-3</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>5.6332347131406957</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>6.7700320038633114E-4</v>
       </c>
       <c r="AN16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>6.5836497814240129</v>
       </c>
       <c r="AO16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>4.1432676315521721E-4</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1.2292725943057181</v>
       </c>
     </row>
